--- a/data/trans_camb/P36B02_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P36B02_R-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.551406516836296</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-2.3983493835805</v>
+        <v>-2.398349383580478</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.2698778691429538</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4298098108464311</v>
+        <v>-0.5519829983367132</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8065925589427856</v>
+        <v>-0.7331493260393743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.991209248735792</v>
+        <v>-6.797414433397832</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.547464913634617</v>
+        <v>-2.528283768083051</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.109038713578576</v>
+        <v>-1.141296364365845</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-8.059519807175745</v>
+        <v>-8.30300562922276</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.248684209492653</v>
+        <v>-1.250092984962625</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.5332077745168009</v>
+        <v>-0.7249680746353331</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-6.97626745211279</v>
+        <v>-7.063183222862716</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.095910512480151</v>
+        <v>6.450057123192546</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.382104606681306</v>
+        <v>5.877648995631366</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.558907193305571</v>
+        <v>2.13086177296445</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.222500099764551</v>
+        <v>2.219193136364892</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.259402795403617</v>
+        <v>3.055910685919609</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.358175050494644</v>
+        <v>-2.439294517855394</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.800300493679933</v>
+        <v>2.697617320687616</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.29395546717777</v>
+        <v>3.236380773216736</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.919056310942794</v>
+        <v>-1.878982734021121</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.0292645056432968</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.02750894794978384</v>
+        <v>-0.02750894794978358</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.002907302498652683</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.004849088522068473</v>
+        <v>-0.006188215666615996</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.008710448556362133</v>
+        <v>-0.007803194692615963</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.07881094493254014</v>
+        <v>-0.07593849263172515</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.02705674815953654</v>
+        <v>-0.02687131748329198</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01175621060784365</v>
+        <v>-0.01209137169237624</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.08577504970885737</v>
+        <v>-0.08865541537037901</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0136520028727578</v>
+        <v>-0.0135548867443717</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.005871327943229534</v>
+        <v>-0.007809458399337259</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.07693529882925804</v>
+        <v>-0.07714905212119352</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.07217254717012632</v>
+        <v>0.0761953659654963</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.07572616729913738</v>
+        <v>0.07066915935678747</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02973532107175755</v>
+        <v>0.02495878222346324</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.02425269574962091</v>
+        <v>0.02436176311018536</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.03546844185602905</v>
+        <v>0.03311450288073777</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.02531957161505309</v>
+        <v>-0.0263561922193582</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03130721758781128</v>
+        <v>0.03017101562349998</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.03690972791223713</v>
+        <v>0.03621748622072454</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.02150970434104585</v>
+        <v>-0.02107135406651296</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.237803451827568</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-6.828645635008257</v>
+        <v>-6.828645635008234</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.4098172542242318</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.725470724073215</v>
+        <v>-1.9148091247536</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.436278235976737</v>
+        <v>-3.464952044385796</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.45971314426207</v>
+        <v>-9.731730151616633</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.697536117649642</v>
+        <v>-2.490585107363117</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.011710003674991</v>
+        <v>-1.721024421923237</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.000708994774032</v>
+        <v>-7.072039928387699</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.608406387568291</v>
+        <v>-1.603492920696943</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.043340015743877</v>
+        <v>-1.906254390373305</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-7.562472156735082</v>
+        <v>-7.527209104215617</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.602640649609097</v>
+        <v>2.227397304339253</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.08453684007016</v>
+        <v>0.8402460189956299</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.96146118112978</v>
+        <v>-4.198245135309115</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.463225564904747</v>
+        <v>1.564068820604704</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.006176213358792</v>
+        <v>2.083259601664834</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.777560098356025</v>
+        <v>-2.797481978930513</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.37090138539806</v>
+        <v>1.514391207981211</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9096531202551476</v>
+        <v>0.9588385104643056</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-4.05291092168144</v>
+        <v>-4.149791520272069</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.01314526629343394</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.07251907818090611</v>
+        <v>-0.07251907818090587</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.004339338991507189</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01822940330799569</v>
+        <v>-0.02013213102597601</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.03643004615119567</v>
+        <v>-0.03654124915344245</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09989893837383858</v>
+        <v>-0.1019800076819451</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02818268635338999</v>
+        <v>-0.026115635744588</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02109295964672125</v>
+        <v>-0.01802774522520473</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07412341060401322</v>
+        <v>-0.07401562923979887</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01701049047961211</v>
+        <v>-0.01686390673338812</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02150642388758388</v>
+        <v>-0.02006280583854804</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.07951351402554946</v>
+        <v>-0.0793458128011089</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.02790494573411754</v>
+        <v>0.02377884710040452</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01156230207291973</v>
+        <v>0.008940454093313063</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.04267558852611435</v>
+        <v>-0.04518971283861032</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.01578900631099045</v>
+        <v>0.0167068400947562</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.021523174838549</v>
+        <v>0.02227661804994802</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.03101532560362911</v>
+        <v>-0.03008799180425747</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01465437101697059</v>
+        <v>0.0162281266528722</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.009607536041691461</v>
+        <v>0.01021241375470556</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.04336814703970483</v>
+        <v>-0.04443661315348339</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.344677443284414</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-6.303496008777176</v>
+        <v>-6.303496008777165</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.9162467376762851</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8581686306844774</v>
+        <v>-0.6335374050544091</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.463148088398524</v>
+        <v>-3.309664502295774</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.214238716355</v>
+        <v>-10.19224740693108</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.611415229151566</v>
+        <v>-1.61450790179125</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.645010926320038</v>
+        <v>-3.505253354930397</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-8.422128864812075</v>
+        <v>-8.559510877636868</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.4263347625234287</v>
+        <v>-0.4980339648479145</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.589198862348765</v>
+        <v>-2.643945903128841</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-8.607502969456123</v>
+        <v>-8.435938106734373</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.604408813579936</v>
+        <v>3.593008594995648</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.400476121880139</v>
+        <v>1.253413339961271</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.796250076755395</v>
+        <v>-4.579739643416544</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.374023827396388</v>
+        <v>2.135126115375311</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8501640643618694</v>
+        <v>0.8621918599212066</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-4.101507622445673</v>
+        <v>-4.169032566770911</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.299880186939995</v>
+        <v>2.264284924562753</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.411507883532357</v>
+        <v>0.5061104182537056</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-5.082233022580251</v>
+        <v>-5.039421085637531</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.01407932385381928</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.06600018626181398</v>
+        <v>-0.06600018626181385</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.009668821747947946</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.009010885999292822</v>
+        <v>-0.006525004314386055</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.03639647387107437</v>
+        <v>-0.03471347710577714</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1074280864442218</v>
+        <v>-0.1072937835290349</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.01679555758364101</v>
+        <v>-0.01679033141288528</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03796803625301813</v>
+        <v>-0.03628625862399516</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.0876922790049267</v>
+        <v>-0.08882047354360123</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.004464217620733658</v>
+        <v>-0.005202324182348726</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0271727197873782</v>
+        <v>-0.02776100234651793</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.09048827690321985</v>
+        <v>-0.08820276491051393</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.03886874227584654</v>
+        <v>0.03868232363839069</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.01505180956341891</v>
+        <v>0.01348050960872165</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.0516215235058781</v>
+        <v>-0.0489687385314496</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.02514501494457848</v>
+        <v>0.02264170375127472</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.008821054048356317</v>
+        <v>0.009160599143474387</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.04349369935713554</v>
+        <v>-0.04385285371932283</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02441638159885423</v>
+        <v>0.02406922957981309</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.004345898086666077</v>
+        <v>0.005379086215148212</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.05401925105684908</v>
+        <v>-0.05328723664961495</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-2.473395186371252</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-5.965625824128851</v>
+        <v>-5.965625824128862</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.280569035893453</v>
+        <v>-4.341404548632195</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.602752244049786</v>
+        <v>-6.809431690542699</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.451309044983818</v>
+        <v>-8.959250952138355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.938052680451239</v>
+        <v>-3.294724994735412</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.098023128130079</v>
+        <v>-4.774323479770961</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.19683194767771</v>
+        <v>-9.072114344902399</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.845184834397286</v>
+        <v>-2.648877790360248</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.84537584472724</v>
+        <v>-4.980358498757696</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.90342017014231</v>
+        <v>-8.030647750440407</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.980372392682811</v>
+        <v>1.935490251583227</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.1532427329860628</v>
+        <v>-0.2793488177895517</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.671919765584854</v>
+        <v>-2.619177725737822</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.260137796646251</v>
+        <v>2.821544829174546</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.600754778446799</v>
+        <v>1.542367820550451</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.824075070192432</v>
+        <v>-3.253149291919678</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.438997086174674</v>
+        <v>1.804196129938081</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.3628332711078724</v>
+        <v>-0.3538690430377917</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-3.682393191714252</v>
+        <v>-3.470311549385598</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.02605316279836365</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.06283808654862583</v>
+        <v>-0.06283808654862594</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04428391390426607</v>
+        <v>-0.04478130531447513</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06909812303630423</v>
+        <v>-0.07166461079951011</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.08788717610975599</v>
+        <v>-0.09359354339558223</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.0304774768784229</v>
+        <v>-0.03419377500355836</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05340777131806736</v>
+        <v>-0.04931668038560095</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09540504342007619</v>
+        <v>-0.09438096479915531</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0296153221412666</v>
+        <v>-0.02776895925641555</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.05041257555166256</v>
+        <v>-0.05169153975864613</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08229971406873322</v>
+        <v>-0.0834699284608592</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0211873765913982</v>
+        <v>0.0207443702410365</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.001625613702028288</v>
+        <v>-0.003067633290236964</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.02833166883909072</v>
+        <v>-0.02876566841316462</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.03524170347715942</v>
+        <v>0.03034114547992741</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01651637734894584</v>
+        <v>0.01652262217146258</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.03041604482949948</v>
+        <v>-0.03513249562771252</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01530925438341445</v>
+        <v>0.01943587482216404</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.004096590606252356</v>
+        <v>-0.003715063105383986</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.03942239007905712</v>
+        <v>-0.0371239956169647</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-0.3607760119311076</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-5.448680315914278</v>
+        <v>-5.448680315914267</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.03359773722523274</v>
@@ -1520,7 +1520,7 @@
         <v>-0.7860116424257102</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-5.521460656800981</v>
+        <v>-5.521460656800969</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.955782009162229</v>
+        <v>-1.103085025362323</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.583440767108967</v>
+        <v>-2.559761999761211</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.134765215757994</v>
+        <v>-7.249086318444482</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.45024729985855</v>
+        <v>-1.455566225624701</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.534696136017102</v>
+        <v>-1.493265733263407</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.670160460902806</v>
+        <v>-6.673461782870048</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.8675825419203977</v>
+        <v>-0.8228256492001703</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.716207663778531</v>
+        <v>-1.693612387666815</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-6.485305636112983</v>
+        <v>-6.439207652892495</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.589114632625799</v>
+        <v>1.525276138785291</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.06230692115841818</v>
+        <v>0.1349738657789709</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.992762841204038</v>
+        <v>-4.111708399721619</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.8756114746989306</v>
+        <v>0.9287440568349051</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7556416348285305</v>
+        <v>0.8012783986397449</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-4.283248360328345</v>
+        <v>-4.175515587179421</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8177253468118126</v>
+        <v>0.8913242332273061</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.06699513398661233</v>
+        <v>0.05436417334732665</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-4.434673122074415</v>
+        <v>-4.530521739764978</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.003822336798414157</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.05772748349546866</v>
+        <v>-0.05772748349546854</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.0003586272948059778</v>
@@ -1625,7 +1625,7 @@
         <v>-0.008390006360232889</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.05893690058504993</v>
+        <v>-0.05893690058504981</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01026405262780897</v>
+        <v>-0.01179134218846715</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02763370189863163</v>
+        <v>-0.02724476047357199</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.07640225387605316</v>
+        <v>-0.07745490877204848</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.01527106994962813</v>
+        <v>-0.01538874822498552</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.01622882035829456</v>
+        <v>-0.0156617076571189</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.07020400584318844</v>
+        <v>-0.0701234360341121</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.009190467280418257</v>
+        <v>-0.008747158303847889</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.01824379329141612</v>
+        <v>-0.01792813736268985</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.06907057326899572</v>
+        <v>-0.06849307027327774</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01721414239194218</v>
+        <v>0.01650629903915678</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.0008382272028213343</v>
+        <v>0.001517943726341749</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.04335794298984175</v>
+        <v>-0.04422053754485327</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.009336174240113055</v>
+        <v>0.009877594448372646</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.008037772945247519</v>
+        <v>0.008518719365697867</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.04553089704604427</v>
+        <v>-0.04451805424736599</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.008778222661649787</v>
+        <v>0.009545852203700035</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.000717024176602107</v>
+        <v>0.0005823800577876546</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.04746871774366312</v>
+        <v>-0.04850363138831221</v>
       </c>
     </row>
     <row r="34">
